--- a/flight_data/Final_Data_2.xlsx
+++ b/flight_data/Final_Data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d837e33cb193e65c/Documents/GitHub/Projects/flight_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:40009_{18D59D76-9770-46E0-AB81-F8E4A91DEB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BAFDE35-AAA9-4E38-9B5D-1B8DB1FEEBE5}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:40009_{18D59D76-9770-46E0-AB81-F8E4A91DEB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{92854377-70B3-4198-86EE-B257681ACE53}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1185" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65906,7 +65906,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65936,7 +65936,7 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <f>20/B2</f>
+        <f t="shared" ref="D2:D7" si="0">20/B2</f>
         <v>2.2296544035674472E-2</v>
       </c>
     </row>
@@ -65951,7 +65951,7 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <f>20/B3</f>
+        <f t="shared" si="0"/>
         <v>0.10256410256410256</v>
       </c>
     </row>
@@ -65966,7 +65966,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <f>20/B4</f>
+        <f t="shared" si="0"/>
         <v>6.2111801242236024E-2</v>
       </c>
       <c r="E4">
@@ -65985,7 +65985,7 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <f>20/B5</f>
+        <f t="shared" si="0"/>
         <v>3.6231884057971016E-2</v>
       </c>
     </row>
@@ -66000,7 +66000,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <f>20/B6</f>
+        <f t="shared" si="0"/>
         <v>3.7950664136622389E-2</v>
       </c>
     </row>
@@ -66012,7 +66012,7 @@
         <v>1424</v>
       </c>
       <c r="D7">
-        <f>20/B7</f>
+        <f t="shared" si="0"/>
         <v>1.4044943820224719E-2</v>
       </c>
     </row>
